--- a/Team-Data/2012-13/1-27-2012-13.xlsx
+++ b/Team-Data/2012-13/1-27-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,106 +733,106 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.581</v>
       </c>
       <c r="H2" t="n">
         <v>48.7</v>
       </c>
       <c r="I2" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J2" t="n">
-        <v>81.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L2" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M2" t="n">
         <v>23.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.382</v>
+        <v>0.38</v>
       </c>
       <c r="O2" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="P2" t="n">
         <v>19.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7</v>
+        <v>0.698</v>
       </c>
       <c r="R2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S2" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="T2" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="U2" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V2" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y2" t="n">
         <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="n">
         <v>3</v>
@@ -789,22 +856,22 @@
         <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT2" t="n">
         <v>25</v>
       </c>
       <c r="AU2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV2" t="n">
         <v>21</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -819,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="BC2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>0.477</v>
+        <v>0.465</v>
       </c>
       <c r="H3" t="n">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="I3" t="n">
         <v>36.7</v>
       </c>
       <c r="J3" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L3" t="n">
         <v>5.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.333</v>
+        <v>0.335</v>
       </c>
       <c r="O3" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.782</v>
+        <v>0.78</v>
       </c>
       <c r="R3" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="T3" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="U3" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V3" t="n">
         <v>14.6</v>
@@ -908,25 +975,25 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="n">
         <v>4.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -938,16 +1005,16 @@
         <v>17</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL3" t="n">
         <v>28</v>
@@ -959,7 +1026,7 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
         <v>22</v>
@@ -971,7 +1038,7 @@
         <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -980,25 +1047,25 @@
         <v>6</v>
       </c>
       <c r="AV3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
         <v>14</v>
       </c>
       <c r="BB3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>1.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
@@ -1129,10 +1196,10 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM4" t="n">
         <v>7</v>
@@ -1150,25 +1217,25 @@
         <v>19</v>
       </c>
       <c r="AR4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS4" t="n">
         <v>25</v>
       </c>
       <c r="AT4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU4" t="n">
         <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
         <v>6</v>
@@ -1183,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="BC4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1302,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
@@ -1317,7 +1384,7 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN5" t="n">
         <v>19</v>
@@ -1332,7 +1399,7 @@
         <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS5" t="n">
         <v>24</v>
@@ -1344,7 +1411,7 @@
         <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW5" t="n">
         <v>20</v>
@@ -1362,7 +1429,7 @@
         <v>3</v>
       </c>
       <c r="BB5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>2.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF6" t="n">
         <v>7</v>
@@ -1484,7 +1551,7 @@
         <v>7</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
@@ -1502,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
@@ -1526,25 +1593,25 @@
         <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW6" t="n">
         <v>25</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA6" t="n">
         <v>10</v>
       </c>
       <c r="BB6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -1758,58 +1825,58 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
         <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.432</v>
+        <v>0.419</v>
       </c>
       <c r="H8" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I8" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="J8" t="n">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L8" t="n">
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O8" t="n">
         <v>17.4</v>
       </c>
       <c r="P8" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.798</v>
+        <v>0.797</v>
       </c>
       <c r="R8" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S8" t="n">
         <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V8" t="n">
         <v>14.5</v>
@@ -1818,7 +1885,7 @@
         <v>7.8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Y8" t="n">
         <v>4.5</v>
@@ -1827,16 +1894,16 @@
         <v>21.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>-2.4</v>
+        <v>-2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1848,7 +1915,7 @@
         <v>18</v>
       </c>
       <c r="AH8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1860,13 +1927,13 @@
         <v>12</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>14</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
         <v>10</v>
@@ -1881,22 +1948,22 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV8" t="n">
         <v>10</v>
       </c>
       <c r="AW8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY8" t="n">
         <v>8</v>
@@ -1908,7 +1975,7 @@
         <v>21</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC8" t="n">
         <v>22</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>6</v>
@@ -2042,7 +2109,7 @@
         <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM9" t="n">
         <v>18</v>
@@ -2072,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
         <v>8</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -2122,88 +2189,88 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
         <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>0.386</v>
+        <v>0.372</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L10" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M10" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.375</v>
+        <v>0.372</v>
       </c>
       <c r="O10" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P10" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q10" t="n">
         <v>0.708</v>
       </c>
       <c r="R10" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="S10" t="n">
         <v>30.9</v>
       </c>
       <c r="T10" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U10" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W10" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X10" t="n">
         <v>5.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AA10" t="n">
         <v>20.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
         <v>22</v>
@@ -2212,7 +2279,7 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
         <v>22</v>
@@ -2221,10 +2288,10 @@
         <v>24</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>26</v>
@@ -2233,7 +2300,7 @@
         <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2242,10 +2309,10 @@
         <v>27</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT10" t="n">
         <v>9</v>
@@ -2254,19 +2321,19 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA10" t="n">
         <v>8</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2394,13 +2461,13 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
         <v>11</v>
@@ -2424,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2442,7 +2509,7 @@
         <v>26</v>
       </c>
       <c r="AX11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
         <v>18</v>
@@ -2454,10 +2521,10 @@
         <v>22</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2637,7 @@
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2582,7 +2649,7 @@
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK12" t="n">
         <v>10</v>
@@ -2597,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP12" t="n">
         <v>5</v>
@@ -2606,7 +2673,7 @@
         <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS12" t="n">
         <v>9</v>
@@ -2624,13 +2691,13 @@
         <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>1.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
         <v>9</v>
@@ -2758,13 +2825,13 @@
         <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2776,7 +2843,7 @@
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
         <v>24</v>
@@ -2791,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2809,10 +2876,10 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA13" t="n">
         <v>11</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -2850,22 +2917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.717</v>
+        <v>0.711</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J14" t="n">
         <v>81.2</v>
@@ -2877,64 +2944,64 @@
         <v>7.2</v>
       </c>
       <c r="M14" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N14" t="n">
         <v>0.353</v>
       </c>
       <c r="O14" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="P14" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q14" t="n">
         <v>0.71</v>
       </c>
       <c r="R14" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S14" t="n">
         <v>30.3</v>
       </c>
       <c r="T14" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
         <v>14.3</v>
       </c>
       <c r="W14" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="X14" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y14" t="n">
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
         <v>3</v>
@@ -2946,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2961,10 +3028,10 @@
         <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
         <v>26</v>
@@ -2973,13 +3040,13 @@
         <v>14</v>
       </c>
       <c r="AS14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
         <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.432</v>
+        <v>0.419</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>81.40000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L15" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O15" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P15" t="n">
         <v>27.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="R15" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S15" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T15" t="n">
         <v>44.9</v>
       </c>
       <c r="U15" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V15" t="n">
         <v>15.4</v>
@@ -3095,7 +3162,7 @@
         <v>5.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
         <v>18.8</v>
@@ -3104,13 +3171,13 @@
         <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3125,13 +3192,13 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
         <v>20</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>4</v>
@@ -3140,10 +3207,10 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
@@ -3155,22 +3222,22 @@
         <v>11</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT15" t="n">
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
@@ -3179,13 +3246,13 @@
         <v>5</v>
       </c>
       <c r="BA15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB15" t="n">
         <v>6</v>
       </c>
       <c r="BC15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -3214,67 +3281,67 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" t="n">
         <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.651</v>
+        <v>0.667</v>
       </c>
       <c r="H16" t="n">
         <v>48.5</v>
       </c>
       <c r="I16" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K16" t="n">
-        <v>0.435</v>
+        <v>0.437</v>
       </c>
       <c r="L16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.338</v>
+        <v>0.342</v>
       </c>
       <c r="O16" t="n">
         <v>16.3</v>
       </c>
       <c r="P16" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.79</v>
+        <v>0.788</v>
       </c>
       <c r="R16" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="S16" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T16" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U16" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V16" t="n">
         <v>14.7</v>
       </c>
       <c r="W16" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y16" t="n">
         <v>6</v>
@@ -3286,13 +3353,13 @@
         <v>19.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.2</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3307,10 +3374,10 @@
         <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK16" t="n">
         <v>24</v>
@@ -3322,10 +3389,10 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP16" t="n">
         <v>24</v>
@@ -3340,7 +3407,7 @@
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU16" t="n">
         <v>23</v>
@@ -3355,7 +3422,7 @@
         <v>11</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
         <v>17</v>
@@ -3364,10 +3431,10 @@
         <v>19</v>
       </c>
       <c r="BB16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -3396,40 +3463,40 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="n">
         <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H17" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="I17" t="n">
         <v>38.5</v>
       </c>
       <c r="J17" t="n">
-        <v>78.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.489</v>
+        <v>0.491</v>
       </c>
       <c r="L17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M17" t="n">
         <v>21.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.382</v>
+        <v>0.386</v>
       </c>
       <c r="O17" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P17" t="n">
         <v>22.9</v>
@@ -3438,19 +3505,19 @@
         <v>0.759</v>
       </c>
       <c r="R17" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T17" t="n">
-        <v>39.5</v>
+        <v>39.1</v>
       </c>
       <c r="U17" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V17" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W17" t="n">
         <v>8.300000000000001</v>
@@ -3459,22 +3526,22 @@
         <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AA17" t="n">
         <v>20.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3486,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="AH17" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
         <v>3</v>
@@ -3504,7 +3571,7 @@
         <v>9</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
@@ -3519,7 +3586,7 @@
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3531,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-0.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -3689,7 +3756,7 @@
         <v>20</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
         <v>17</v>
@@ -3701,13 +3768,13 @@
         <v>5</v>
       </c>
       <c r="AS18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT18" t="n">
         <v>7</v>
       </c>
       <c r="AU18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV18" t="n">
         <v>9</v>
@@ -3722,7 +3789,7 @@
         <v>5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3883,13 +3950,13 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT19" t="n">
         <v>5</v>
       </c>
       <c r="AU19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV19" t="n">
         <v>26</v>
@@ -3898,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="AX19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY19" t="n">
         <v>24</v>
@@ -3907,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="BA19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" t="n">
         <v>29</v>
       </c>
       <c r="G20" t="n">
-        <v>0.341</v>
+        <v>0.326</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
@@ -3960,7 +4027,7 @@
         <v>35.9</v>
       </c>
       <c r="J20" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="K20" t="n">
         <v>0.448</v>
@@ -3972,19 +4039,19 @@
         <v>18.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O20" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="P20" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
         <v>30.1</v>
@@ -4014,37 +4081,37 @@
         <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF20" t="n">
         <v>25</v>
       </c>
-      <c r="AF20" t="n">
-        <v>24</v>
-      </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI20" t="n">
         <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
         <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM20" t="n">
         <v>19</v>
@@ -4059,10 +4126,10 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS20" t="n">
         <v>21</v>
@@ -4080,7 +4147,7 @@
         <v>28</v>
       </c>
       <c r="AX20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
@@ -4095,7 +4162,7 @@
         <v>27</v>
       </c>
       <c r="BC20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" t="n">
         <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>0.643</v>
+        <v>0.634</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,43 +4209,43 @@
         <v>36.7</v>
       </c>
       <c r="J21" t="n">
-        <v>83</v>
+        <v>83.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="M21" t="n">
         <v>28.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.382</v>
+        <v>0.377</v>
       </c>
       <c r="O21" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="U21" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V21" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="W21" t="n">
         <v>8.4</v>
@@ -4190,40 +4257,40 @@
         <v>3.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF21" t="n">
         <v>6</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>5</v>
       </c>
       <c r="AG21" t="n">
         <v>6</v>
       </c>
       <c r="AH21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
         <v>16</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,25 +4299,25 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ21" t="n">
         <v>16</v>
       </c>
       <c r="AR21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AU21" t="n">
         <v>28</v>
@@ -4262,7 +4329,7 @@
         <v>9</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
@@ -4277,7 +4344,7 @@
         <v>10</v>
       </c>
       <c r="BC21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -4306,61 +4373,61 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="n">
         <v>34</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>0.756</v>
+        <v>0.773</v>
       </c>
       <c r="H22" t="n">
         <v>48.6</v>
       </c>
       <c r="I22" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J22" t="n">
-        <v>78.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L22" t="n">
         <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.385</v>
+        <v>0.388</v>
       </c>
       <c r="O22" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="P22" t="n">
         <v>27.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.836</v>
+        <v>0.838</v>
       </c>
       <c r="R22" t="n">
         <v>10.6</v>
       </c>
       <c r="S22" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T22" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U22" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V22" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="W22" t="n">
         <v>8.199999999999999</v>
@@ -4372,19 +4439,19 @@
         <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA22" t="n">
         <v>21.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.7</v>
+        <v>105.9</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4393,13 +4460,13 @@
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4408,7 +4475,7 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM22" t="n">
         <v>13</v>
@@ -4429,10 +4496,10 @@
         <v>24</v>
       </c>
       <c r="AS22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU22" t="n">
         <v>19</v>
@@ -4450,7 +4517,7 @@
         <v>4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
         <v>7</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" t="n">
-        <v>0.326</v>
+        <v>0.333</v>
       </c>
       <c r="H23" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J23" t="n">
-        <v>83</v>
+        <v>82.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O23" t="n">
         <v>12.7</v>
@@ -4527,31 +4594,31 @@
         <v>16.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.785</v>
+        <v>0.786</v>
       </c>
       <c r="R23" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="S23" t="n">
         <v>32.4</v>
       </c>
       <c r="T23" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U23" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z23" t="n">
         <v>19.4</v>
@@ -4560,22 +4627,22 @@
         <v>16.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC23" t="n">
         <v>-3.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH23" t="n">
         <v>20</v>
@@ -4584,7 +4651,7 @@
         <v>6</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
         <v>8</v>
@@ -4596,7 +4663,7 @@
         <v>17</v>
       </c>
       <c r="AN23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR23" t="n">
         <v>25</v>
@@ -4629,7 +4696,7 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -4748,22 +4815,22 @@
         <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF24" t="n">
         <v>19</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
@@ -4793,7 +4860,7 @@
         <v>22</v>
       </c>
       <c r="AS24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT24" t="n">
         <v>23</v>
@@ -4814,13 +4881,13 @@
         <v>9</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>0.333</v>
+        <v>0.341</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J25" t="n">
-        <v>84</v>
+        <v>84.2</v>
       </c>
       <c r="K25" t="n">
         <v>0.445</v>
@@ -4882,19 +4949,19 @@
         <v>18</v>
       </c>
       <c r="N25" t="n">
-        <v>0.332</v>
+        <v>0.334</v>
       </c>
       <c r="O25" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="P25" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.749</v>
+        <v>0.747</v>
       </c>
       <c r="R25" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S25" t="n">
         <v>29.3</v>
@@ -4906,7 +4973,7 @@
         <v>22.1</v>
       </c>
       <c r="V25" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W25" t="n">
         <v>7.8</v>
@@ -4915,31 +4982,31 @@
         <v>5.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB25" t="n">
         <v>95.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.2</v>
+        <v>-3.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH25" t="n">
         <v>22</v>
@@ -4951,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL25" t="n">
         <v>25</v>
@@ -4963,7 +5030,7 @@
         <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP25" t="n">
         <v>26</v>
@@ -4978,16 +5045,16 @@
         <v>27</v>
       </c>
       <c r="AT25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
         <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX25" t="n">
         <v>9</v>
@@ -4996,16 +5063,16 @@
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB25" t="n">
         <v>18</v>
       </c>
       <c r="BC25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -5034,85 +5101,85 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" t="n">
         <v>22</v>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.512</v>
       </c>
       <c r="H26" t="n">
         <v>48.8</v>
       </c>
       <c r="I26" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="J26" t="n">
-        <v>82.40000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K26" t="n">
         <v>0.438</v>
       </c>
       <c r="L26" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.336</v>
+        <v>0.338</v>
       </c>
       <c r="O26" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P26" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="Q26" t="n">
         <v>0.776</v>
       </c>
       <c r="R26" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S26" t="n">
         <v>30.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U26" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V26" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W26" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X26" t="n">
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.9</v>
+        <v>-1.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5127,10 +5194,10 @@
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
         <v>23</v>
@@ -5145,10 +5212,10 @@
         <v>26</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
         <v>9</v>
@@ -5160,13 +5227,13 @@
         <v>20</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU26" t="n">
         <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW26" t="n">
         <v>19</v>
@@ -5178,13 +5245,13 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA26" t="n">
         <v>23</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -5294,22 +5361,22 @@
         <v>-6.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
         <v>7</v>
@@ -5324,10 +5391,10 @@
         <v>20</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
@@ -5342,13 +5409,13 @@
         <v>30</v>
       </c>
       <c r="AT27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5366,7 +5433,7 @@
         <v>15</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -5482,13 +5549,13 @@
         <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5506,16 +5573,16 @@
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>-1.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
@@ -5679,10 +5746,10 @@
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>8</v>
@@ -5697,7 +5764,7 @@
         <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR29" t="n">
         <v>23</v>
@@ -5715,13 +5782,13 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
         <v>24</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5733,7 +5800,7 @@
         <v>12</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5852,7 +5919,7 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -5876,10 +5943,10 @@
         <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5903,7 +5970,7 @@
         <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6040,7 +6107,7 @@
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6052,10 +6119,10 @@
         <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
         <v>25</v>
@@ -6067,7 +6134,7 @@
         <v>18</v>
       </c>
       <c r="AS31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
         <v>8</v>
@@ -6082,13 +6149,13 @@
         <v>18</v>
       </c>
       <c r="AX31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-27-2012-13</t>
+          <t>2013-01-27</t>
         </is>
       </c>
     </row>
